--- a/biology/Zoologie/Capucin_à_dos_brun/Capucin_à_dos_brun.xlsx
+++ b/biology/Zoologie/Capucin_à_dos_brun/Capucin_à_dos_brun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Capucin_%C3%A0_dos_brun</t>
+          <t>Capucin_à_dos_brun</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lonchura nigriceps
 Le Capucin à dos brun (Lonchura nigriceps) est une espèce de passereau appartenant à la famille des Estrildidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Capucin_%C3%A0_dos_brun</t>
+          <t>Capucin_à_dos_brun</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve en Angola, Bénin, Burundi, Cameroun, République centrafricaine, République du Congo, République démocratique du Congo, Côte d'Ivoire, Gabon, Ghana, Guinée, Guinée équatoriale, Liberia, Mali, Nigeria, Ouganda, Rwanda, Sierra Leone, Soudan, Tanzanie et Togo.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Capucin_%C3%A0_dos_brun</t>
+          <t>Capucin_à_dos_brun</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il habite les savanes et les forêts humides tropicales et subtropicales en plaine.
 </t>
